--- a/PlanilhaBitHome.xlsx
+++ b/PlanilhaBitHome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,47 +528,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ellen ribas Bento</t>
+          <t>Victor Nascimento</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rua Lago Tingui</t>
+          <t>Avenida Barao do Rio Branco</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>593</v>
+        <v>3596</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Palmital</t>
+          <t>Alto dos Passos</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Colombo</t>
+          <t>Juiz de Fora</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>83413-397</t>
+          <t>36025-020</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>10906</v>
+        <v>11147</v>
       </c>
       <c r="J2" t="n">
-        <v>33.98</v>
+        <v>41.93</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1432990515542-01</t>
+          <t>1437090515801-01</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -583,60 +583,60 @@
         <v>1000</v>
       </c>
       <c r="O2" t="n">
-        <v>115</v>
+        <v>2395</v>
       </c>
       <c r="P2" t="n">
-        <v>9.18</v>
+        <v>18.62</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>9.08</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Julio Cesar S.Lima Do Nascimento</t>
+          <t>Elisabete Redekop</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Quadra QN 25 Conjunto 11</t>
+          <t>Rua Platao</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Riacho Fundo II</t>
+          <t>Aristocrata</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brasilia</t>
+          <t>Sao Jose dos Pinhais</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>71880-611</t>
+          <t>83030-140</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10958</v>
+        <v>11214</v>
       </c>
       <c r="J3" t="n">
-        <v>61.62</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1433820515605-01</t>
+          <t>1437880515883-01</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -651,60 +651,60 @@
         <v>1000</v>
       </c>
       <c r="O3" t="n">
-        <v>1250</v>
+        <v>1020</v>
       </c>
       <c r="P3" t="n">
-        <v>17.39</v>
+        <v>18.74</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>16.72</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Marcio Hemerly Dezan</t>
+          <t>NILZA SOUZA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rua Sargento Boening</t>
+          <t>Rua Curitiba</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>470</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Saldanha Marinho</t>
+          <t>Itapua</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Petropolis</t>
+          <t>Vila Velha</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>25640-103</t>
+          <t>29101-564</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>10911</v>
+        <v>11136</v>
       </c>
       <c r="J4" t="n">
-        <v>351.64</v>
+        <v>278.6</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1433030515544-01</t>
+          <t>1436170515716-01</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -719,64 +719,64 @@
         <v>1000</v>
       </c>
       <c r="O4" t="n">
-        <v>3710</v>
+        <v>7875</v>
       </c>
       <c r="P4" t="n">
-        <v>22.56</v>
+        <v>209.02</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>22.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>centro de educacao infantil nova curitiba</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>orlando dionisio</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rua Francisco Nadolny</t>
+          <t>Rua Waldemar Martins</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>635</v>
+        <v>934</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Campina do Siqueira</t>
+          <t>Parque Peruche</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80740-030</t>
+          <t>02535-001</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11011</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="n">
-        <v>372.14</v>
+        <v>109.79</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>1438050515892-01</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>132762</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -787,64 +787,66 @@
         <v>1000</v>
       </c>
       <c r="O5" t="n">
-        <v>5360</v>
+        <v>1125</v>
       </c>
       <c r="P5" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+        <v>14.15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5.6</v>
+      </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jehanne Parra</t>
+          <t>Soelda Engelhardt</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rua Ana Maria Dias da Silva</t>
+          <t>Rua Doutor Eurico de Aguiar</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>375</v>
+        <v>541</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jardim das Azaleias</t>
+          <t>Praia do Canto</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pocos de Caldas</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>37705-118</t>
+          <t>29055-280</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3455</v>
+        <v>11190</v>
       </c>
       <c r="J6" t="n">
-        <v>466.53</v>
+        <v>79.65000000000001</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>1437810515877-01</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>132822</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -855,64 +857,66 @@
         <v>1000</v>
       </c>
       <c r="O6" t="n">
-        <v>8550</v>
+        <v>650</v>
       </c>
       <c r="P6" t="n">
-        <v>38.65</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.62</v>
+      </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ana Paula de Jesus</t>
+          <t>Denise Pensutti</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rua do Periquito</t>
+          <t>Rua Padre Joao</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>470</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Arruda</t>
+          <t>Penha de Franca</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Colombo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>83401-010</t>
+          <t>03637-000</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>10908</v>
+        <v>11082</v>
       </c>
       <c r="J7" t="n">
-        <v>111.61</v>
+        <v>270.3</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1432860515538-01</t>
+          <t>1436260515732-01</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>130305</v>
+        <v>132019</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -923,41 +927,41 @@
         <v>1000</v>
       </c>
       <c r="O7" t="n">
-        <v>855</v>
+        <v>1910</v>
       </c>
       <c r="P7" t="n">
-        <v>14.04</v>
+        <v>15.35</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.04</v>
+        <v>7.23</v>
       </c>
       <c r="R7" t="n">
-        <v>15.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sandra</t>
+          <t>Erica Salles de Almeida Assis</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rua Manuel Justiniano Quintao</t>
+          <t>Rua Doutor Jamil Cury</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vila Palmeiras</t>
+          <t>Vila Industrial</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Sao Jose dos Campos</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -967,22 +971,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>02728-020</t>
+          <t>12220-281</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10960</v>
+        <v>11081</v>
       </c>
       <c r="J8" t="n">
-        <v>109.03</v>
+        <v>42.58</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1433810515601-01</t>
+          <t>1435990515700-01</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>130772</v>
+        <v>132013</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -993,66 +997,66 @@
         <v>1000</v>
       </c>
       <c r="O8" t="n">
-        <v>2350</v>
+        <v>405</v>
       </c>
       <c r="P8" t="n">
-        <v>14.77</v>
+        <v>12.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.140000000000001</v>
+        <v>4.11</v>
       </c>
       <c r="R8" t="n">
-        <v>14.23</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Jessica Fernanda Souza</t>
+          <t>Izabella Medeiros</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rua Hermes Bastos</t>
+          <t>Rua Antonio Tavares</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>210</v>
+        <v>583</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maruipe</t>
+          <t>Cambuci</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>29043-120</t>
+          <t>01542-010</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10860</v>
+        <v>11170</v>
       </c>
       <c r="J9" t="n">
-        <v>129.89</v>
+        <v>130.12</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1432310515472-01</t>
+          <t>1437300515822-01</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>130112</v>
+        <v>132765</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1063,66 +1067,64 @@
         <v>1000</v>
       </c>
       <c r="O9" t="n">
-        <v>3465</v>
+        <v>3535</v>
       </c>
       <c r="P9" t="n">
-        <v>19.45</v>
+        <v>16.23</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.45</v>
+        <v>10.59</v>
       </c>
       <c r="R9" t="n">
-        <v>20.05</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>J. HELTE LTDA</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Clovis Teixeira de Carvalho Junior</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Avenida Rocha Pombo</t>
+          <t>Rua Coronel Meireles</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2561</v>
+        <v>1202</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aguas Belas</t>
+          <t>Vila Lais</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sao Jose dos Pinhais</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>83010-620</t>
+          <t>03612-000</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>10891</v>
+        <v>11247</v>
       </c>
       <c r="J10" t="n">
-        <v>25.63</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
+        <v>314.87</v>
+      </c>
+      <c r="K10" t="n">
+        <v>515900</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>132976</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1130,65 +1132,69 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4195</v>
+      </c>
       <c r="P10" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+        <v>18.14</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>11.96</v>
+      </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>15.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Roberta Bahls</t>
+          <t>Renata Santana</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rua Tiriva</t>
+          <t>Rua Pelotas</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>357</v>
+        <v>209</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Itaipu A</t>
+          <t>Vila Mariana</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Foz do Iguacu</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>85866-200</t>
+          <t>04012-002</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>10907</v>
+        <v>11137</v>
       </c>
       <c r="J11" t="n">
-        <v>40.59</v>
+        <v>129.7</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1432880515540-01</t>
+          <t>1436750515785-01</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>130301</v>
+        <v>132175</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1199,41 +1205,41 @@
         <v>1000</v>
       </c>
       <c r="O11" t="n">
-        <v>520</v>
+        <v>3945</v>
       </c>
       <c r="P11" t="n">
-        <v>12.19</v>
+        <v>16.23</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.35</v>
+        <v>11.44</v>
       </c>
       <c r="R11" t="n">
-        <v>15.99</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FERNANDO MONTI</t>
+          <t>Cristiane Marques</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rua Lyon</t>
+          <t>Rua Santo Micali</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jardim Maison Du Parc</t>
+          <t>Parque Residencial Laranjeiras I</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Indaiatuba</t>
+          <t>Taquaritinga</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1243,22 +1249,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13331-369</t>
+          <t>15904-060</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>10931</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>347.88</v>
+        <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1433110515552-01</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>130423</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1269,62 +1275,60 @@
         <v>1000</v>
       </c>
       <c r="O12" t="n">
-        <v>3730</v>
+        <v>12100</v>
       </c>
       <c r="P12" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>11</v>
-      </c>
+        <v>36.67</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>18.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Observacao: a rua e madeirao , e nao madeira</t>
+          <t>Cristiane Marques</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rua Madeira</t>
+          <t>Ramal Jose Sudano</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Industrial Sao Luiz</t>
+          <t>Parque Residencial Laranjeiras II</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Contagem</t>
+          <t>Taquaritinga</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>32073-455</t>
+          <t>15904-154</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3411</v>
+        <v>11143</v>
       </c>
       <c r="J13" t="n">
-        <v>399</v>
+        <v>1198</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1432170515465-01</t>
+          <t>1436420515748-01</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1339,10 +1343,10 @@
         <v>1000</v>
       </c>
       <c r="O13" t="n">
-        <v>6245</v>
+        <v>9000</v>
       </c>
       <c r="P13" t="n">
-        <v>31.85</v>
+        <v>41.35</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
@@ -1352,51 +1356,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aline Rosa Veloso Oliveira</t>
+          <t>Claudia Carmine</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Avenida Brauna</t>
+          <t>Rua dos Araujos</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1454</v>
+        <v>18</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Colina de Laranjeiras</t>
+          <t>Tijuca</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Serra</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>29167-124</t>
+          <t>20521-000</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3454</v>
+        <v>3569</v>
       </c>
       <c r="J14" t="n">
-        <v>649</v>
+        <v>349</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1433250515567-01</t>
+          <t>1437880515881-01</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>132827</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1407,12 +1411,14 @@
         <v>1000</v>
       </c>
       <c r="O14" t="n">
-        <v>9010</v>
+        <v>3470</v>
       </c>
       <c r="P14" t="n">
-        <v>42.83</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+        <v>20.52</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>10.46</v>
+      </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
@@ -1420,51 +1426,51 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Luciana FELISBERTO</t>
+          <t>LUCIA Rezende</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rua Pinho</t>
+          <t>Rua Professor Vahia de Abreu</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>95</v>
+        <v>284</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Colina de Laranjeiras</t>
+          <t>Vila Olimpia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Serra</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>29167-142</t>
+          <t>04549-001</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>10982</v>
+        <v>11296</v>
       </c>
       <c r="J15" t="n">
-        <v>108.4</v>
+        <v>37.53</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1434030515612-01</t>
+          <t>1438420515919-01</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>133382</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1475,64 +1481,66 @@
         <v>1000</v>
       </c>
       <c r="O15" t="n">
-        <v>2830</v>
+        <v>1140</v>
       </c>
       <c r="P15" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
+        <v>13.72</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5.63</v>
+      </c>
       <c r="R15" t="n">
-        <v>18.7</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>La Closet</t>
+          <t>Aline De Almeida Alves Fonseca</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rua Farmaceutico Joao Medeiros</t>
+          <t>Avenida Presidente Florentino Avidos</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>300</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jardim Blumenau</t>
+          <t>Parque Moscoso</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blumenau</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>89010-430</t>
+          <t>29018-190</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>10864</v>
+        <v>11168</v>
       </c>
       <c r="J16" t="n">
-        <v>125.36</v>
+        <v>239.8</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1432070515442-01</t>
+          <t>1437150515818-01</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>130123</v>
+        <v>0</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1543,66 +1551,62 @@
         <v>1000</v>
       </c>
       <c r="O16" t="n">
-        <v>2130</v>
+        <v>4395</v>
       </c>
       <c r="P16" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>7.68</v>
-      </c>
+        <v>23.44</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>16.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brenda Hoffmann</t>
+          <t>Veridiana Ou Samuel</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rodovia Virgilio Varzea</t>
+          <t>Rua Afonso de Martos Filho</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1572</v>
+        <v>352</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Saco Grande</t>
+          <t>Jardim Itamaraty</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Florianopolis</t>
+          <t>Ourinhos</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>88032-001</t>
+          <t>19904-250</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10872</v>
+        <v>11202</v>
       </c>
       <c r="J17" t="n">
-        <v>60.72</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>1431810515428-01</t>
-        </is>
+        <v>317.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>515868</v>
       </c>
       <c r="L17" t="n">
-        <v>130063</v>
+        <v>132798</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1613,66 +1617,64 @@
         <v>1000</v>
       </c>
       <c r="O17" t="n">
-        <v>1390</v>
+        <v>4180</v>
       </c>
       <c r="P17" t="n">
-        <v>14.19</v>
+        <v>19.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.15</v>
+        <v>11.93</v>
       </c>
       <c r="R17" t="n">
-        <v>15.72</v>
+        <v>18.65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Telma Valverde</t>
+          <t>Em frente a igreja Batista</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rua Comendador Vicente Amaral</t>
+          <t xml:space="preserve">Rua rio Piquiri </t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1792</v>
+        <v>919</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jardim Guaruja</t>
+          <t xml:space="preserve">Weissopolis </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Sorocaba</t>
+          <t xml:space="preserve">Pinhais </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18050-600</t>
+          <t>83322-010</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>10938</v>
+        <v>11274</v>
       </c>
       <c r="J18" t="n">
-        <v>21.88</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>1433250515565-01</t>
-        </is>
+        <v>312.23</v>
+      </c>
+      <c r="K18" t="n">
+        <v>515953</v>
       </c>
       <c r="L18" t="n">
-        <v>130496</v>
+        <v>0</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1683,66 +1685,64 @@
         <v>1000</v>
       </c>
       <c r="O18" t="n">
-        <v>475</v>
+        <v>4220</v>
       </c>
       <c r="P18" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4.26</v>
-      </c>
+        <v>17.7</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>12.48</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Taise Melo</t>
+          <t>Dayane Cristina Modena</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rua Marataizes</t>
+          <t>Rua Antenor do Nascimento Ferraz</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Valparaiso</t>
+          <t>Parque dos Eucaliptos II</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Serra</t>
+          <t>Mogi Guacu</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>29165-827</t>
+          <t>13842-376</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>11037</v>
+        <v>11267</v>
       </c>
       <c r="J19" t="n">
-        <v>258.35</v>
+        <v>41.93</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1435450515672-01</t>
+          <t>1438790515940-01</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>133342</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1753,64 +1753,66 @@
         <v>1000</v>
       </c>
       <c r="O19" t="n">
-        <v>2050</v>
+        <v>715</v>
       </c>
       <c r="P19" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+        <v>14.29</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4.75</v>
+      </c>
       <c r="R19" t="n">
-        <v>33.75</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Movement Me</t>
+          <t>Alessandra Freitas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Avenida Doutor Cardoso de Melo</t>
+          <t>Pedro de Alcantara apto 102</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>783</v>
+        <v>400</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vila Olimpia</t>
+          <t xml:space="preserve">Jardim Imperial </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Diamantina</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>04548-003</t>
+          <t>39100-000</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>10903</v>
+        <v>11266</v>
       </c>
       <c r="J20" t="n">
-        <v>73.63</v>
+        <v>37.86</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1432830515532-01</t>
+          <t>1438990515958-01</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>130302</v>
+        <v>0</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1821,36 +1823,34 @@
         <v>1000</v>
       </c>
       <c r="O20" t="n">
-        <v>1100</v>
+        <v>655</v>
       </c>
       <c r="P20" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5.55</v>
-      </c>
+        <v>30.52</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>13.83</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vanina</t>
+          <t>Tiago</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Rua Tenente Manoel Oliveira de Souza</t>
+          <t>Avenida Visconde de Guarapuava</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>51</v>
+        <v>1535</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Barreirinha</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1865,22 +1865,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>82650-380</t>
+          <t>80060-060</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3416</v>
+        <v>11268</v>
       </c>
       <c r="J21" t="n">
-        <v>649</v>
+        <v>129</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1431690515420-01</t>
+          <t>1438880515951-01</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>130101</v>
+        <v>133345</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1891,62 +1891,62 @@
         <v>1000</v>
       </c>
       <c r="O21" t="n">
-        <v>8575</v>
+        <v>5955</v>
       </c>
       <c r="P21" t="n">
-        <v>20.43</v>
+        <v>15.67</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.02</v>
+        <v>15.6</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Larissa Minassa</t>
+          <t>Sandra</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rua Mario Jorge Assef</t>
+          <t>Rua Felisbino Antonio</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>580</v>
+        <v>480</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Itapebussu</t>
+          <t>Vila Delurdes</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Guarapari</t>
+          <t>Campo Largo</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>29210-180</t>
+          <t>83601-590</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3421</v>
+        <v>11291</v>
       </c>
       <c r="J22" t="n">
-        <v>649</v>
+        <v>95.27</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1432640515512-01</t>
+          <t>1439120515975-01</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1961,64 +1961,64 @@
         <v>1000</v>
       </c>
       <c r="O22" t="n">
-        <v>8485</v>
+        <v>170</v>
       </c>
       <c r="P22" t="n">
-        <v>73.19</v>
+        <v>9.18</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Graziela</t>
+          <t>Adilson Jose de Abreu</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua deputado albino zeni </t>
+          <t>Rua Joao Ribeiro</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>700</v>
+        <v>901</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jardim America </t>
+          <t>Campestre</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ituporanga</t>
+          <t>Santo Andre</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>88400-000</t>
+          <t>09070-250</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>10993</v>
+        <v>11135</v>
       </c>
       <c r="J23" t="n">
-        <v>127.36</v>
+        <v>51.43</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1433270515569-01</t>
+          <t>1436470515760-01</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>131238</v>
+        <v>132155</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2029,60 +2029,62 @@
         <v>1000</v>
       </c>
       <c r="O23" t="n">
-        <v>1585</v>
+        <v>595</v>
       </c>
       <c r="P23" t="n">
-        <v>26.54</v>
+        <v>12.19</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.56</v>
+        <v>4.51</v>
       </c>
       <c r="R23" t="n">
-        <v>19.46</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PALOMINA WINE BAR LTDA</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Michel Oliveira</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Quadra SHIS QL 2 Conjunto 5</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>Rua Coronel Carlos Brandao</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>99</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Setor de Habitacoes Individuais Sul</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brasilia</t>
+          <t>Uba</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>71610-055</t>
+          <t>36500-098</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>10992</v>
+        <v>11300</v>
       </c>
       <c r="J24" t="n">
-        <v>1851.73</v>
+        <v>439.6</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>1439100515973-01</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -2097,10 +2099,10 @@
         <v>1000</v>
       </c>
       <c r="O24" t="n">
-        <v>12785</v>
+        <v>9700</v>
       </c>
       <c r="P24" t="n">
-        <v>46.14</v>
+        <v>40.52</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
@@ -2110,47 +2112,47 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gustavo Souza Nonato</t>
+          <t>Bianca Mendes Trotta</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rua Joao Jose</t>
+          <t>Av Frei Afonso</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Jundiai</t>
+          <t>Praia do Saco</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Anapolis</t>
+          <t>Mangaratiba</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>75110-350</t>
+          <t>23860-000</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>10968</v>
+        <v>11302</v>
       </c>
       <c r="J25" t="n">
-        <v>33.2</v>
+        <v>118.03</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1433750515595-01</t>
+          <t>1439280515988-01</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -2165,64 +2167,64 @@
         <v>1000</v>
       </c>
       <c r="O25" t="n">
-        <v>65</v>
+        <v>995</v>
       </c>
       <c r="P25" t="n">
-        <v>15.23</v>
+        <v>18.54</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>17.3</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Amanda Coelho</t>
+          <t>Luciane/Simone Coelho</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Avenida Nossa Senhora do Carmo</t>
+          <t>Rua Potiguara</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1805</v>
+        <v>217</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Freguesia (Jacarepagua)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>30320-000</t>
+          <t>22750-290</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11023</v>
+        <v>11252</v>
       </c>
       <c r="J26" t="n">
-        <v>152.75</v>
+        <v>52.14</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1435170515651-01</t>
+          <t>1438350515909-01</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>132904</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2233,66 +2235,66 @@
         <v>1000</v>
       </c>
       <c r="O26" t="n">
-        <v>3615</v>
+        <v>855</v>
       </c>
       <c r="P26" t="n">
-        <v>31.56</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+        <v>14.48</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5.04</v>
+      </c>
       <c r="R26" t="n">
-        <v>33.35</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Dalva</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>J. HELTE LTDA</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Rua Dona Francisca</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20 ap 202 </t>
-        </is>
+          <t>Rua Visconde de Nacar</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1155</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Engenho Novo</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>20715-370</t>
+          <t>80410-201</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>10866</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>334.82</v>
+        <v>670.4400000000001</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1432380515476-01</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>130055</v>
+        <v>0</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2303,66 +2305,62 @@
         <v>1000</v>
       </c>
       <c r="O27" t="n">
-        <v>3750</v>
+        <v>2775</v>
       </c>
       <c r="P27" t="n">
-        <v>20.46</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>11.04</v>
-      </c>
+        <v>32.78</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>22.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nelson Kozi Maeda</t>
+          <t>Juliana Dias Cunha Matoso</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rua Dom Raimundo Brito</t>
+          <t>Rua Roma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>215</v>
+        <v>425</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aclimacao</t>
+          <t>Vila Sao Vicente</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Paranagua</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>01526-050</t>
+          <t>83209-180</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>10882</v>
+        <v>11275</v>
       </c>
       <c r="J28" t="n">
-        <v>329</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>1432680515516-01</t>
-        </is>
+        <v>316.36</v>
+      </c>
+      <c r="K28" t="n">
+        <v>515957</v>
       </c>
       <c r="L28" t="n">
-        <v>130309</v>
+        <v>133321</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2373,66 +2371,66 @@
         <v>1000</v>
       </c>
       <c r="O28" t="n">
-        <v>4285</v>
+        <v>4185</v>
       </c>
       <c r="P28" t="n">
-        <v>18.25</v>
+        <v>18.37</v>
       </c>
       <c r="Q28" t="n">
-        <v>12.14</v>
+        <v>11.94</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Rosangela da costa</t>
+          <t>Elenice Boing</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Rua Joaquim da Silva Sampaio</t>
+          <t>Rua: Geronimo Back</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>830</v>
+        <v>70</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Merces</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Vidal Ramos</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80710-630</t>
+          <t>88443-000</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>11042</v>
+        <v>11129</v>
       </c>
       <c r="J29" t="n">
-        <v>49.46</v>
+        <v>213.91</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1435630515681-01</t>
+          <t>1436400515742-01</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>132094</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2443,64 +2441,66 @@
         <v>1000</v>
       </c>
       <c r="O29" t="n">
-        <v>2815</v>
+        <v>1520</v>
       </c>
       <c r="P29" t="n">
-        <v>74.42</v>
-      </c>
-      <c r="Q29" t="inlineStr"/>
+        <v>18.82</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>6.42</v>
+      </c>
       <c r="R29" t="n">
-        <v>8.9</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Flavia C M De Souza</t>
+          <t>AMANDA MARTINS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Vila Seis</t>
+          <t>Rua Alvarenga Peixoto</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Paciencia</t>
+          <t>Bela Vista</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Mario Campos</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23066-188</t>
+          <t>32470-000</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>10934</v>
+        <v>11161</v>
       </c>
       <c r="J30" t="n">
-        <v>63.83</v>
+        <v>138.28</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1433090515550-01</t>
+          <t>1437080515795-01</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>130410</v>
+        <v>0</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2511,62 +2511,60 @@
         <v>1000</v>
       </c>
       <c r="O30" t="n">
-        <v>1885</v>
+        <v>3450</v>
       </c>
       <c r="P30" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>7.18</v>
-      </c>
+        <v>51.24</v>
+      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>17.78</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>celestino laurindo junior</t>
+          <t>LUCAS RIBAS MIRA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rua Isidoro Pedroso</t>
+          <t>Rua Rio Iriri</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>673</v>
+        <v>369</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vila Alba</t>
+          <t>Bairro Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dourados</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>79830-200</t>
+          <t>82840-310</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>49.47</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1434310515634-01</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2581,64 +2579,64 @@
         <v>1000</v>
       </c>
       <c r="O31" t="n">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="P31" t="n">
-        <v>25.77</v>
+        <v>17.48</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>26.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cynthia Boghossian</t>
+          <t>Soraia Carvalho</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rua Euclides de Figueiredo</t>
+          <t>Rua Governador Agamenon Magalhaes</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>77</v>
+        <v>796</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jardim Botanico</t>
+          <t>Taruma</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22261-070</t>
+          <t>82800-100</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>11028</v>
+        <v>11100</v>
       </c>
       <c r="J32" t="n">
-        <v>166.76</v>
+        <v>100.74</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1435220515657-01</t>
+          <t>1436150515711-01</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>131376</v>
+        <v>132089</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2649,66 +2647,66 @@
         <v>1000</v>
       </c>
       <c r="O32" t="n">
-        <v>3980</v>
+        <v>1880</v>
       </c>
       <c r="P32" t="n">
-        <v>19.14</v>
+        <v>13.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.51</v>
+        <v>7.17</v>
       </c>
       <c r="R32" t="n">
-        <v>18.86</v>
+        <v>14.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Helio</t>
+          <t>Rosemeire Rizzo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rua Joao Assef</t>
+          <t>Alameda Gregorio Bogossian Sobrinho</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>674</v>
+        <v>60</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Estacao</t>
+          <t>Tambore</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Araucaria</t>
+          <t>Santana de Parnaiba</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>83705-100</t>
+          <t>06543-385</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>10948</v>
+        <v>11188</v>
       </c>
       <c r="J33" t="n">
-        <v>110.54</v>
+        <v>23.8</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1433320515573-01</t>
+          <t>1437630515851-01</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>132813</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2719,64 +2717,64 @@
         <v>1000</v>
       </c>
       <c r="O33" t="n">
-        <v>4000</v>
+        <v>115</v>
       </c>
       <c r="P33" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+        <v>12.7</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3.51</v>
+      </c>
       <c r="R33" t="n">
-        <v>10.74</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ana Paula</t>
+          <t>Bruna Souza</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rua Padre Gabriel</t>
+          <t>Rua Capitao Pedroso</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>416</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dom Joao Batista</t>
+          <t>Restinga</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vila Velha</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>29121-219</t>
+          <t>91790-790</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>10896</v>
+        <v>11256</v>
       </c>
       <c r="J34" t="n">
-        <v>94.39</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>1432570515498-01</t>
-        </is>
+        <v>315.58</v>
+      </c>
+      <c r="K34" t="n">
+        <v>515880</v>
       </c>
       <c r="L34" t="n">
-        <v>130285</v>
+        <v>132977</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2787,41 +2785,41 @@
         <v>1000</v>
       </c>
       <c r="O34" t="n">
-        <v>1270</v>
+        <v>4165</v>
       </c>
       <c r="P34" t="n">
-        <v>17.67</v>
+        <v>24.03</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.9</v>
+        <v>11.9</v>
       </c>
       <c r="R34" t="n">
-        <v>15.99</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Boa safra sementes</t>
+          <t>reviver vest comercio de roupas ltda</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rua Pedro Alvares Cabral</t>
+          <t>Rua Samambaia</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>357</v>
+        <v>41</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Nova Russia</t>
+          <t>Campina da Barra</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ponta Grossa</t>
+          <t>Araucaria</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2831,14 +2829,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>84070-390</t>
+          <t>83709-430</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3331</v>
+        <v>11110</v>
       </c>
       <c r="J35" t="n">
-        <v>569.95</v>
+        <v>1204.2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2846,7 +2844,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>132039</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2857,12 +2855,14 @@
         <v>1000</v>
       </c>
       <c r="O35" t="n">
-        <v>10935</v>
+        <v>7800</v>
       </c>
       <c r="P35" t="n">
-        <v>40.33</v>
-      </c>
-      <c r="Q35" t="inlineStr"/>
+        <v>26.32</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>19.42</v>
+      </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
@@ -2870,26 +2870,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Giovani Albino</t>
+          <t>MERI ANDRADE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rua Jorge da Silva</t>
+          <t>Rua Doutor Waldemar da Costa Lima</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>378</v>
+        <v>231</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sao Marcos</t>
+          <t>Atuba</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sao Jose dos Pinhais</t>
+          <t>Pinhais</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2899,18 +2899,18 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>83090-185</t>
+          <t>83326-220</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>10933</v>
+        <v>11101</v>
       </c>
       <c r="J36" t="n">
-        <v>18.83</v>
+        <v>48.04</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1433150515562-01</t>
+          <t>1436460515756-01</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -2925,39 +2925,41 @@
         <v>1000</v>
       </c>
       <c r="O36" t="n">
-        <v>805</v>
+        <v>700</v>
       </c>
       <c r="P36" t="n">
         <v>10.75</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>8.93</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CARLOS EDUARDO DA SILVA ROLLE</t>
+          <t>Sidney</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Rua Lauro Novaes Ribas</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>121</v>
+          <t>Rua amparo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>356   apto</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Vila Ozorio</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Itarare</t>
+          <t>Serra Negra</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2967,22 +2969,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>18462-028</t>
+          <t>13930-000</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>11083</v>
+        <v>11103</v>
       </c>
       <c r="J37" t="n">
-        <v>127.02</v>
+        <v>61.22</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1436140515709-01</t>
+          <t>1436370515736-01</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>132147</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2993,60 +2995,60 @@
         <v>1000</v>
       </c>
       <c r="O37" t="n">
-        <v>850</v>
+        <v>1365</v>
       </c>
       <c r="P37" t="n">
-        <v>26.74</v>
-      </c>
-      <c r="Q37" t="inlineStr"/>
+        <v>16.22</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6.1</v>
+      </c>
       <c r="R37" t="n">
-        <v>27.12</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tais Figueiredo</t>
+          <t>AMANDA WELDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rua dos Macons</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>278</v>
-      </c>
+          <t>Rua Almir Nelson de Almeida</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pituba</t>
+          <t>Campo Comprido</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>41810-205</t>
+          <t>81230-220</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>10983</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>64.13</v>
+        <v>25.62</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1434110515616-01</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -3061,64 +3063,64 @@
         <v>1000</v>
       </c>
       <c r="O38" t="n">
-        <v>370</v>
+        <v>740</v>
       </c>
       <c r="P38" t="n">
-        <v>13.99</v>
+        <v>10.75</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>16.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Helio</t>
+          <t>Vally Flores</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rua Joao Assef</t>
+          <t>Rua Serra da Boa Esperanca</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>674</v>
+        <v>171</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Estacao</t>
+          <t>Condominio Monte Belo</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Araucaria</t>
+          <t>Salto</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>83705-100</t>
+          <t>13323-665</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>109613</v>
+        <v>11077</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>299.5</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>1435850515694-01</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>130793</v>
+        <v>132206</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3129,13 +3131,13 @@
         <v>1000</v>
       </c>
       <c r="O39" t="n">
-        <v>2000</v>
+        <v>7600</v>
       </c>
       <c r="P39" t="n">
-        <v>14.7</v>
+        <v>21.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.41</v>
+        <v>19.01</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3144,51 +3146,51 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Heloisa Cotios de Sene</t>
+          <t>Juliane Pallazzini</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Rua Volans</t>
+          <t>Rua 2500</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>851</v>
+        <v>940</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jardim Satelite</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sao Jose dos Campos</t>
+          <t>Balneario Camboriu</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>12230-490</t>
+          <t>88330-396</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>10881</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>50.58</v>
+        <v>105.57</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1432610515504-01</t>
+          <t>1436470515758-01</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>130342</v>
+        <v>0</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3199,62 +3201,60 @@
         <v>1000</v>
       </c>
       <c r="O40" t="n">
-        <v>205</v>
+        <v>305</v>
       </c>
       <c r="P40" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3.7</v>
-      </c>
+        <v>15.23</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>12.78</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Rita fernandes</t>
+          <t>Ricardo Goes</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Rua major severiano de faria</t>
+          <t>Area Especial Area Especial 2</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>169</v>
+        <v>1602</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Centro</t>
+          <t>Guara II</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Careacu</t>
+          <t>Brasilia</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>37582-000</t>
+          <t>71070-606</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>11080</v>
+        <v>3630</v>
       </c>
       <c r="J41" t="n">
-        <v>70.20999999999999</v>
+        <v>401.37</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1436160515714-01</t>
+          <t>1439560516014-01</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -3269,30 +3269,30 @@
         <v>1000</v>
       </c>
       <c r="O41" t="n">
-        <v>1325</v>
+        <v>2100</v>
       </c>
       <c r="P41" t="n">
-        <v>45.8</v>
+        <v>22.19</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>18.41</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>J. HELTE LTDA</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jocely fioravanti tschege</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rua Visconde de Nacar</t>
+          <t>Rua do Patrocinio</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1155</v>
+        <v>595</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3301,32 +3301,32 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Itu</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80410-201</t>
+          <t>13300-200</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11036</v>
       </c>
       <c r="J42" t="n">
-        <v>670.4400000000001</v>
+        <v>21.88</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>1435440515670-01</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>131938</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3337,39 +3337,41 @@
         <v>1000</v>
       </c>
       <c r="O42" t="n">
-        <v>14095</v>
+        <v>105</v>
       </c>
       <c r="P42" t="n">
-        <v>32.78</v>
-      </c>
-      <c r="Q42" t="inlineStr"/>
+        <v>11.32</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3.49</v>
+      </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Marcelo Ballin</t>
+          <t>Bruna Roberta Pereira</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Avenida Engenheiro Max de Souza</t>
+          <t>Rua Lourenco Kanzler</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>906</v>
+        <v>1000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Coqueiros</t>
+          <t>Nova Brasilia</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Florianopolis</t>
+          <t>Jaragua do Sul</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3379,22 +3381,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>88080-000</t>
+          <t>89252-240</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>10853</v>
+        <v>11265</v>
       </c>
       <c r="J43" t="n">
-        <v>78.3</v>
+        <v>132.69</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1432180515467-01</t>
+          <t>1438910515955-01</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>133377</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3405,60 +3407,62 @@
         <v>1000</v>
       </c>
       <c r="O43" t="n">
-        <v>720</v>
+        <v>595</v>
       </c>
       <c r="P43" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="Q43" t="inlineStr"/>
+        <v>13.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4.51</v>
+      </c>
       <c r="R43" t="n">
-        <v>15.4</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fabiano Bartolucci</t>
+          <t>Paulo Henrique lemos Siqueira</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Avenida Jacaranda</t>
+          <t>Rua Adolpho Coutinho</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>403</v>
+        <v>241</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sul (Aguas Claras)</t>
+          <t>Ibiapaba</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Brasilia</t>
+          <t>Cariacica</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>71927-540</t>
+          <t>29159-040</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>10887</v>
+        <v>11099</v>
       </c>
       <c r="J44" t="n">
-        <v>71.62</v>
+        <v>359.7</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1432620515508-01</t>
+          <t>1436500515763-01</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -3473,64 +3477,64 @@
         <v>1000</v>
       </c>
       <c r="O44" t="n">
-        <v>2595</v>
+        <v>3930</v>
       </c>
       <c r="P44" t="n">
-        <v>21.18</v>
+        <v>42.42</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>20.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Patricia Mello Braga</t>
+          <t>Marta Santini</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Avenida Mergulhao</t>
+          <t>Rua Piaui</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Campo Grande</t>
+          <t>Boneca do Iguacu</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Sao Jose dos Pinhais</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>23087-045</t>
+          <t>83040-080</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>10899</v>
+        <v>11248</v>
       </c>
       <c r="J45" t="n">
-        <v>44.45</v>
+        <v>57.64</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1432770515520-01</t>
+          <t>1438580515926-01</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>130307</v>
+        <v>0</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3541,66 +3545,64 @@
         <v>1000</v>
       </c>
       <c r="O45" t="n">
-        <v>705</v>
+        <v>1145</v>
       </c>
       <c r="P45" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4.73</v>
-      </c>
+        <v>13.16</v>
+      </c>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>16.05</v>
+        <v>10.24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Georgiana Baum</t>
+          <t>Elizete Bessa</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rua Joaquim Nabuco</t>
+          <t>Rua Benedita Simoes de Almeida</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cidade Baixa</t>
+          <t>Condominio Royal Park</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Sao Jose dos Campos</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>90050-340</t>
+          <t>12246-871</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>10937</v>
+        <v>11079</v>
       </c>
       <c r="J46" t="n">
-        <v>47.12</v>
+        <v>499</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1433520515582-01</t>
+          <t>1435910515698-01</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>131973</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3611,64 +3613,66 @@
         <v>1000</v>
       </c>
       <c r="O46" t="n">
-        <v>385</v>
+        <v>3920</v>
       </c>
       <c r="P46" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="Q46" t="inlineStr"/>
+        <v>19.58</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>11.39</v>
+      </c>
       <c r="R46" t="n">
-        <v>14.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ederson Oliveira</t>
+          <t>Carlos Wagner De Oliveira</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rua da pedreira </t>
+          <t>Rua Professor Augusto Rusch</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1892</v>
+        <v>5</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Campo pequeno</t>
+          <t>Praia de Itaparica</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colombo </t>
+          <t>Vila Velha</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>83404-010</t>
+          <t>29102-080</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>11078</v>
+        <v>11253</v>
       </c>
       <c r="J47" t="n">
-        <v>209.7</v>
+        <v>31.16</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>1436180515720-01</t>
+          <t>1438370515911-01</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>132912</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3679,64 +3683,66 @@
         <v>1000</v>
       </c>
       <c r="O47" t="n">
-        <v>3390</v>
+        <v>605</v>
       </c>
       <c r="P47" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="Q47" t="inlineStr"/>
+        <v>13.82</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4.53</v>
+      </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>14.26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Hilda Bricks</t>
+          <t>Julien Totti de Bastos</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Alameda das Lagostas</t>
+          <t>Rua das Gaivotas</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>130</v>
+        <v>571</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Praia do Arrastao</t>
+          <t>Alphaville Graciosa</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sao Sebastiao</t>
+          <t>Pinhais</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>11605-106</t>
+          <t>83327-155</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>10935</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>174.7</v>
+        <v>239.8</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1433290515571-01</t>
+          <t>1439500516008-01</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>130450</v>
+        <v>0</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3747,41 +3753,39 @@
         <v>1000</v>
       </c>
       <c r="O48" t="n">
-        <v>4290</v>
+        <v>5030</v>
       </c>
       <c r="P48" t="n">
-        <v>19.12</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>12.15</v>
-      </c>
+        <v>19.51</v>
+      </c>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>helio</t>
+          <t>silmara moraes</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rua Joao Assef</t>
+          <t>Rua Vinte e Nove de Junho</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>674</v>
+        <v>267</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Estacao</t>
+          <t>Bacacheri</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Araucaria</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3791,14 +3795,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>83705-100</t>
+          <t>82515-396</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>109493</v>
+        <v>11112</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3806,7 +3810,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>130813</v>
+        <v>0</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3817,14 +3821,12 @@
         <v>1000</v>
       </c>
       <c r="O49" t="n">
-        <v>3825</v>
+        <v>3165</v>
       </c>
       <c r="P49" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>11.19</v>
-      </c>
+        <v>15.58</v>
+      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
         <v>0</v>
       </c>
@@ -3832,47 +3834,47 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Simone da Silva Torres Rodrigues</t>
+          <t>Carlos Batista</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rua Alberto Lucarelli</t>
+          <t xml:space="preserve">rua Raimundo albano de Almeida </t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>245</v>
+        <v>70</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bonfim</t>
+          <t xml:space="preserve">Centro </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Chorozinho</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CE</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>29047-070</t>
+          <t>62875-000</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3522</v>
+        <v>11255</v>
       </c>
       <c r="J50" t="n">
-        <v>607.64</v>
+        <v>39.73</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1436010515704-01</t>
+          <t>1438520515921-01</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -3887,60 +3889,60 @@
         <v>1000</v>
       </c>
       <c r="O50" t="n">
-        <v>9140</v>
+        <v>445</v>
       </c>
       <c r="P50" t="n">
-        <v>88.09999999999999</v>
+        <v>76.72</v>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>19.83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>VALLY FLORES</t>
+          <t>Ana Prado</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rua Serra da Boa Esperanca</t>
+          <t>Rua Euclides Bandeira</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>171</v>
+        <v>500</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Condominio Monte Belo</t>
+          <t>Centro Civico</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Salto</t>
+          <t>Curitiba</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>13323-665</t>
+          <t>80530-020</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>11292</v>
       </c>
       <c r="J51" t="n">
-        <v>362.06</v>
+        <v>23.04</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>1439190515984-01</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -3955,43 +3957,1557 @@
         <v>1000</v>
       </c>
       <c r="O51" t="n">
-        <v>1090</v>
+        <v>580</v>
       </c>
       <c r="P51" t="n">
-        <v>20.23</v>
+        <v>10.75</v>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Anderson Oliveira santos</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Rua Florencio Rosario</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>265</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bosque das Juritis</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Ribeirao Preto</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>14021-675</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>11132</v>
+      </c>
+      <c r="J52" t="n">
+        <v>143.62</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1436450515754-01</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>132130</v>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>R$  1.216,12</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2780</v>
+      </c>
+      <c r="P52" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="R52" t="n">
+        <v>19.82</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Flavia Pereira</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rua Sao Jose dos Pinhais</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1304</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sitio Cercado</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>81920-250</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O53" t="n">
+        <v>4180</v>
+      </c>
+      <c r="P53" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>reviver vest comercio de roupas ltda</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rua Samambaia</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>41</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Campina da Barra</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Araucaria</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>83709-430</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>11110</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O54" t="n">
+        <v>395</v>
+      </c>
+      <c r="P54" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Viviane Aparecida Rafacho Silva</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Rua Gabriel Jose Rodrigues</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>210</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Bortolandia</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>02352-160</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>11150</v>
+      </c>
+      <c r="J55" t="n">
+        <v>322.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1437140515816-01</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O55" t="n">
+        <v>5600</v>
+      </c>
+      <c r="P55" t="n">
+        <v>80.52</v>
+      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Barbara Stancini Vieira Aresi</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Avenida Brauna</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>294</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Colina de Laranjeiras</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Serra</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>29167-124</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>11216</v>
+      </c>
+      <c r="J56" t="n">
+        <v>133.65</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1437950515887-01</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2500</v>
+      </c>
+      <c r="P56" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ana paola basilio lopes martins da silva</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Avenida Prefeito Dulcidio Cardoso</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Barra da Tijuca</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>RJ</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>22620-311</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>11309</v>
+      </c>
+      <c r="J57" t="n">
+        <v>351.98</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O57" t="n">
+        <v>10185</v>
+      </c>
+      <c r="P57" t="n">
+        <v>36.94</v>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jonatas</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Avenida Itaquera</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>6393</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cidade Lider</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>08285-065</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>11076</v>
+      </c>
+      <c r="J58" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1436270515734-01</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>131993</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O58" t="n">
+        <v>415</v>
+      </c>
+      <c r="P58" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="R58" t="n">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Licia Beatriz</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Avenida Ayrton Senna da Silva</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>541</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Piedade</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Jaboatao dos Guararapes</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>54400-020</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>11041</v>
+      </c>
+      <c r="J59" t="n">
+        <v>33.92</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1435490515674-01</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>131962</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O59" t="n">
+        <v>395</v>
+      </c>
+      <c r="P59" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="R59" t="n">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Monaliza</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Rua Embaixador Ildefonso Falcao</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>90</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cidade Sao Mateus</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>03964-020</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>11278</v>
+      </c>
+      <c r="J60" t="n">
+        <v>124.99</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1439030515969-01</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>133314</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P60" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="R60" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kurt Nicolas</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rua Constante Moro Sobrinho</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1148</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Jurema</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sao Jose dos Pinhais</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>83085-511</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>11264</v>
+      </c>
+      <c r="J61" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1438780515937-01</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O61" t="n">
+        <v>130</v>
+      </c>
+      <c r="P61" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jhony Castelan colombi</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Avenida Beira Mar</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2368</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Praia do Morro</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Guarapari</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>29216-010</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>11075</v>
+      </c>
+      <c r="J62" t="n">
+        <v>239.6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1436170515718-01</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O62" t="n">
+        <v>6800</v>
+      </c>
+      <c r="P62" t="n">
+        <v>204.54</v>
+      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MEIRIVANDA QUINTAO</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>rua prefeito oliveira souza</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>97</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>santana</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>bicas</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>36601-060</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>11171</v>
+      </c>
+      <c r="J63" t="n">
+        <v>46.18</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1436200515724-01</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O63" t="n">
+        <v>820</v>
+      </c>
+      <c r="P63" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Flavia de Almeida Palmarin</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Rua Cabo Joao Felix Amorim</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>141</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>29032-584</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>11217</v>
+      </c>
+      <c r="J64" t="n">
+        <v>82.14</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>1437950515889-01</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1760</v>
+      </c>
+      <c r="P64" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>18.44</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Mariana Batista</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Avenida Almirante Cochrane</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>283</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Embare</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>11040-003</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>11153</v>
+      </c>
+      <c r="J65" t="n">
+        <v>41.93</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>1436700515777-01</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>132222</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1395</v>
+      </c>
+      <c r="P65" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="R65" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Quertni Silva</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Rua Irma Faustina Kowalska</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>433</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Tatuquara</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>81480-354</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>307.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O66" t="n">
+        <v>4105</v>
+      </c>
+      <c r="P66" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GILDO OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rua Danca Brasileira</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>31</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Jardim Marilda</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>04857-180</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>11102</v>
+      </c>
+      <c r="J67" t="n">
+        <v>114.26</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>1436390515740-01</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>132117</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O67" t="n">
+        <v>10410</v>
+      </c>
+      <c r="P67" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="R67" t="n">
+        <v>21.26</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Cristiane Marques</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ramal Jose Sudano</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>65</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Parque Residencial Laranjeiras II</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Taquaritinga</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>15904-154</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>11143</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1198</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>1436420515748-01</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O68" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P68" t="n">
+        <v>61.54</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Rafaela Mathias Schardong</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rua Sao Domingos</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>940</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Centro</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sao Leopoldo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>93010-290</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>11085</v>
+      </c>
+      <c r="J69" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1436210515730-01</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>131976</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O69" t="n">
+        <v>415</v>
+      </c>
+      <c r="P69" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="R69" t="n">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Dayane Cristina Modena</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rua Antenor do Nascimento Ferraz</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>170</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Parque dos Eucaliptos II</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Mogi Guacu</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>13842-376</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>11251</v>
+      </c>
+      <c r="J70" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>1438390515916-01</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>132915</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1455</v>
+      </c>
+      <c r="P70" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="R70" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>perto do Supermercado Mercurio</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rua Danca Brasileira</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>31</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Jardim Marilda</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>04857-180</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>11199</v>
+      </c>
+      <c r="J71" t="n">
+        <v>64.59</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1437810515875-01</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>132771</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O71" t="n">
+        <v>5435</v>
+      </c>
+      <c r="P71" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="R71" t="n">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Fernanda gonzaga da silva</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Avenida das Palmeiras</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>76</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Colonia (Zona Sul)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>04895-340</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>11215</v>
+      </c>
+      <c r="J72" t="n">
+        <v>314.87</v>
+      </c>
+      <c r="K72" t="n">
+        <v>515891</v>
+      </c>
+      <c r="L72" t="n">
+        <v>132820</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O72" t="n">
+        <v>4210</v>
+      </c>
+      <c r="P72" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="R72" t="n">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Valeria Teixeira</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Rua Pedro Jose Samora</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Santa Monica</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Uberlandia</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>38408-224</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>11254</v>
+      </c>
+      <c r="J73" t="n">
+        <v>229</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1438220515906-01</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O73" t="n">
+        <v>7110</v>
+      </c>
+      <c r="P73" t="n">
+        <v>64.75</v>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>R$  1.969,52</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
